--- a/data/trans_orig/P33B3_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>90704</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>75094</v>
+        <v>74041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111151</v>
+        <v>109630</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1818676277607227</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1505669096551478</v>
+        <v>0.14845675584995</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.222865057761989</v>
+        <v>0.2198153380429173</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>197</v>
@@ -762,19 +762,19 @@
         <v>128136</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>111606</v>
+        <v>113425</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>145547</v>
+        <v>146377</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2054848467410622</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1789764953418298</v>
+        <v>0.1818932232399333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2334061292190419</v>
+        <v>0.2347370114082641</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>290</v>
@@ -783,19 +783,19 @@
         <v>218841</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>195402</v>
+        <v>194190</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>244482</v>
+        <v>243821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1949897648463607</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1741051821971638</v>
+        <v>0.1730254655933422</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2178363640751446</v>
+        <v>0.2172471443533008</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>46902</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34524</v>
+        <v>36483</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62887</v>
+        <v>63210</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09404048479186523</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06922309934897451</v>
+        <v>0.07315013825404189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1260927123106289</v>
+        <v>0.1267399201778029</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>146</v>
@@ -833,19 +833,19 @@
         <v>92157</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>78706</v>
+        <v>78838</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>109672</v>
+        <v>108548</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1477870929802173</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1262169863471395</v>
+        <v>0.1264288161709197</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1758748372009667</v>
+        <v>0.1740729902901264</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>197</v>
@@ -854,19 +854,19 @@
         <v>139059</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>120177</v>
+        <v>121893</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>161937</v>
+        <v>163006</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1239030338550187</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1070787006081737</v>
+        <v>0.1086081515023112</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.144288114094396</v>
+        <v>0.1452405454694156</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>72388</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56219</v>
+        <v>58431</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>91161</v>
+        <v>90718</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.145142525934553</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1127231201339569</v>
+        <v>0.1171573462020591</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1827828694194111</v>
+        <v>0.1818941907278609</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>163</v>
@@ -904,19 +904,19 @@
         <v>107034</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>90985</v>
+        <v>91077</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>124107</v>
+        <v>123861</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.171644111943296</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1459080745756218</v>
+        <v>0.1460552080122471</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1990232394419883</v>
+        <v>0.1986288746596168</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>232</v>
@@ -925,19 +925,19 @@
         <v>179422</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>156810</v>
+        <v>157517</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>201920</v>
+        <v>204745</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1598672674412921</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1397196222604906</v>
+        <v>0.140349619339318</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1799131610470701</v>
+        <v>0.1824300962582316</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>288745</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>264715</v>
+        <v>262656</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>314532</v>
+        <v>311694</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.578949361512859</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.530768050181773</v>
+        <v>0.5266392459346705</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6306541164084997</v>
+        <v>0.624963743233735</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>355</v>
@@ -975,19 +975,19 @@
         <v>296253</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>273782</v>
+        <v>271639</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>321264</v>
+        <v>319514</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4750839483354244</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4390493942421103</v>
+        <v>0.4356125126138803</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.515193201460865</v>
+        <v>0.5123860001384203</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>597</v>
@@ -996,19 +996,19 @@
         <v>584998</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>551692</v>
+        <v>551044</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>619169</v>
+        <v>620506</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5212399338573286</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.491563945209992</v>
+        <v>0.4909866932604102</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5516866307558911</v>
+        <v>0.5528777517191823</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>89033</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>73050</v>
+        <v>72469</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>105897</v>
+        <v>108382</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09272910640433632</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07608283645462693</v>
+        <v>0.07547814062050347</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1102941412373284</v>
+        <v>0.112881715267148</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>215</v>
@@ -1121,19 +1121,19 @@
         <v>135393</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>119350</v>
+        <v>118423</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>154316</v>
+        <v>153327</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1213367386946055</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1069588560689845</v>
+        <v>0.10612813999458</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1382949086257273</v>
+        <v>0.1374088107848832</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>321</v>
@@ -1142,19 +1142,19 @@
         <v>224426</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>200848</v>
+        <v>200604</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>251166</v>
+        <v>250242</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1081058030490384</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09674835363307971</v>
+        <v>0.09663093932489354</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.120986369139837</v>
+        <v>0.1205414797838365</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>65432</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52243</v>
+        <v>51990</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80825</v>
+        <v>81855</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06814867880435418</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05441198740530729</v>
+        <v>0.05414868142039791</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08418117007235597</v>
+        <v>0.08525305195217241</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>232</v>
@@ -1192,19 +1192,19 @@
         <v>141136</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>124079</v>
+        <v>123507</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>157893</v>
+        <v>160255</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1264826579243344</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1111965039085028</v>
+        <v>0.1106840023140203</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1415006392027848</v>
+        <v>0.1436172066128975</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>309</v>
@@ -1213,19 +1213,19 @@
         <v>206568</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>183192</v>
+        <v>184866</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>231726</v>
+        <v>232163</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0995033848459104</v>
+        <v>0.09950338484591038</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08824360388392011</v>
+        <v>0.08904965221879611</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1116220836766245</v>
+        <v>0.1118328370081574</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>145042</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>123156</v>
+        <v>124288</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>170266</v>
+        <v>168220</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1510642457861225</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.128269432512081</v>
+        <v>0.1294483962799332</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1773355422504764</v>
+        <v>0.175204097439952</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>343</v>
@@ -1263,19 +1263,19 @@
         <v>218074</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>195315</v>
+        <v>196457</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>241432</v>
+        <v>242528</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.19543300222517</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.175036912693404</v>
+        <v>0.1760601936676012</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2163658274551744</v>
+        <v>0.2173482347571858</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>502</v>
@@ -1284,19 +1284,19 @@
         <v>363116</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>333237</v>
+        <v>331494</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>394506</v>
+        <v>396321</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1749125986083157</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1605196517384767</v>
+        <v>0.1596801478032372</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1900330825344767</v>
+        <v>0.190907413340638</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>660630</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>630308</v>
+        <v>629533</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>690846</v>
+        <v>688053</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6880579690051871</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6564772177729211</v>
+        <v>0.6556704796313332</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7195286727116236</v>
+        <v>0.7166199187373754</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>817</v>
@@ -1334,19 +1334,19 @@
         <v>621246</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>590958</v>
+        <v>594400</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>649622</v>
+        <v>650772</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5567476011558898</v>
+        <v>0.5567476011558899</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5296039733636222</v>
+        <v>0.5326888561447873</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5821771781883912</v>
+        <v>0.5832082441647739</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1385</v>
@@ -1355,19 +1355,19 @@
         <v>1281876</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1238542</v>
+        <v>1237882</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1325707</v>
+        <v>1323405</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6174782134967356</v>
+        <v>0.6174782134967354</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5966043614909221</v>
+        <v>0.5962861811431959</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6385912748406</v>
+        <v>0.6374828017814519</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>61293</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48060</v>
+        <v>48118</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78121</v>
+        <v>78154</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05862594301233282</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04596877103938148</v>
+        <v>0.04602456559094476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07472156265336308</v>
+        <v>0.07475384858295697</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>110</v>
@@ -1480,19 +1480,19 @@
         <v>74199</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>60453</v>
+        <v>60763</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>89294</v>
+        <v>89098</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07082459144800772</v>
+        <v>0.07082459144800773</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05770387382130515</v>
+        <v>0.05799948596614941</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08523358850956343</v>
+        <v>0.08504657710762746</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>183</v>
@@ -1501,19 +1501,19 @@
         <v>135492</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>114095</v>
+        <v>116323</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>156817</v>
+        <v>157403</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06473153268774062</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05450909473317646</v>
+        <v>0.05557361921614833</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07491970249531901</v>
+        <v>0.07519968716863115</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>77065</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>61823</v>
+        <v>61520</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>101875</v>
+        <v>97314</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07371182893551038</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05913330519387291</v>
+        <v>0.05884271373330657</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09744222191990984</v>
+        <v>0.09307938734006642</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>164</v>
@@ -1551,19 +1551,19 @@
         <v>107567</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>91937</v>
+        <v>92629</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>127408</v>
+        <v>126464</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1026757731433297</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08775652080008736</v>
+        <v>0.08841633193030528</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1216140643121717</v>
+        <v>0.1207130755461976</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>247</v>
@@ -1572,19 +1572,19 @@
         <v>184632</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>161393</v>
+        <v>160244</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>214127</v>
+        <v>213755</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.08820867747138388</v>
+        <v>0.08820867747138392</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07710599109960148</v>
+        <v>0.07655677839725497</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1022995644920121</v>
+        <v>0.1021219033130359</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>149164</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>127180</v>
+        <v>126589</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>175251</v>
+        <v>174796</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1426736483124753</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1216462694513582</v>
+        <v>0.1210807553346099</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1676256333290586</v>
+        <v>0.1671901726944601</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>333</v>
@@ -1622,19 +1622,19 @@
         <v>195566</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>176962</v>
+        <v>176038</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>218351</v>
+        <v>217761</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1866728778105711</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1689148580766713</v>
+        <v>0.1680328959537882</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2084211808597975</v>
+        <v>0.207858493147562</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>501</v>
@@ -1643,19 +1643,19 @@
         <v>344730</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>316631</v>
+        <v>315632</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>378291</v>
+        <v>381214</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1646958619016326</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1512715234619734</v>
+        <v>0.1507940280284424</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1807294104679455</v>
+        <v>0.1821260064808886</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>757969</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>724707</v>
+        <v>725540</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>788338</v>
+        <v>788762</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7249885797396816</v>
+        <v>0.7249885797396814</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6931737957466159</v>
+        <v>0.6939708607427286</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7540362066484189</v>
+        <v>0.7544421666688197</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>909</v>
@@ -1693,19 +1693,19 @@
         <v>670309</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>641555</v>
+        <v>645888</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>696036</v>
+        <v>696094</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6398267575980915</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6123798832753347</v>
+        <v>0.6165159511255773</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6643832163952466</v>
+        <v>0.6644385863151904</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1613</v>
@@ -1714,19 +1714,19 @@
         <v>1428278</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1383885</v>
+        <v>1386706</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1467639</v>
+        <v>1466155</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6823639279392428</v>
+        <v>0.6823639279392429</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6611549162712802</v>
+        <v>0.6625026516707648</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7011685538435861</v>
+        <v>0.7004597377756757</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>49500</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36999</v>
+        <v>37612</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64841</v>
+        <v>67545</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05072117982270932</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03791168530082101</v>
+        <v>0.03853977410148707</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06644003814185376</v>
+        <v>0.06921051770549366</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>88</v>
@@ -1839,19 +1839,19 @@
         <v>58620</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>46724</v>
+        <v>47132</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71851</v>
+        <v>72616</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0645412433096433</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05144410176263058</v>
+        <v>0.05189352580719685</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07910885022124789</v>
+        <v>0.07995162290409676</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>136</v>
@@ -1860,19 +1860,19 @@
         <v>108120</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>89983</v>
+        <v>89774</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>127948</v>
+        <v>129223</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0573830078911142</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04775705176089031</v>
+        <v>0.04764596960099743</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06790628394320322</v>
+        <v>0.06858319671296201</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>62468</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48276</v>
+        <v>48425</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>81213</v>
+        <v>82132</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06400863076385283</v>
+        <v>0.06400863076385281</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04946670054298479</v>
+        <v>0.04961915091539031</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08321654547047359</v>
+        <v>0.08415755389031408</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>121</v>
@@ -1910,19 +1910,19 @@
         <v>78269</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>64546</v>
+        <v>64477</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>92968</v>
+        <v>92039</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.086175266032609</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07106573317514481</v>
+        <v>0.07098976705265347</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1023589136885114</v>
+        <v>0.1013366302381576</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>182</v>
@@ -1931,19 +1931,19 @@
         <v>140737</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>119347</v>
+        <v>119824</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>164545</v>
+        <v>162474</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07469384311147385</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06334173375601944</v>
+        <v>0.06359498714079193</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08732954615039494</v>
+        <v>0.08623073418839867</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>219314</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>194633</v>
+        <v>193376</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>244458</v>
+        <v>250045</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2247232172803271</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1994332634146411</v>
+        <v>0.1981454708526905</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2504870294020323</v>
+        <v>0.2562126088788677</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>432</v>
@@ -1981,19 +1981,19 @@
         <v>239973</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>220243</v>
+        <v>218418</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>265043</v>
+        <v>261662</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2642140893923258</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2424913373781029</v>
+        <v>0.2404824019272993</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2918165156867635</v>
+        <v>0.288093944445606</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>688</v>
@@ -2002,19 +2002,19 @@
         <v>459287</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>426237</v>
+        <v>424356</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>491277</v>
+        <v>491833</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2437594106039127</v>
+        <v>0.2437594106039126</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2262185953428654</v>
+        <v>0.2252205120793263</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2607376859228809</v>
+        <v>0.2610328762412761</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>644647</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>613324</v>
+        <v>610815</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>676078</v>
+        <v>675607</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6605469721331108</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6284517090949897</v>
+        <v>0.625880287122645</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6927531335344712</v>
+        <v>0.6922711114340937</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>679</v>
@@ -2052,19 +2052,19 @@
         <v>531390</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>503576</v>
+        <v>504108</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>557564</v>
+        <v>555946</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5850694012654218</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5544458713422078</v>
+        <v>0.5550313989289045</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6138874431120732</v>
+        <v>0.6121063591801253</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1261</v>
@@ -2073,19 +2073,19 @@
         <v>1176037</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1132794</v>
+        <v>1135670</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1215964</v>
+        <v>1216966</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6241637383934993</v>
+        <v>0.6241637383934991</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6012132497007848</v>
+        <v>0.6027394514888802</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6453544634108058</v>
+        <v>0.6458863782007317</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>290530</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>257119</v>
+        <v>258886</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>321492</v>
+        <v>325741</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08347861999473537</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07387843265542947</v>
+        <v>0.07438615385124145</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09237483495671528</v>
+        <v>0.09359576665085335</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>610</v>
@@ -2198,19 +2198,19 @@
         <v>396348</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>367700</v>
+        <v>366588</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>428437</v>
+        <v>428298</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1072567550075229</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09950408371069568</v>
+        <v>0.09920323540013123</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1159404434443065</v>
+        <v>0.1159027615175828</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>930</v>
@@ -2219,19 +2219,19 @@
         <v>686879</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>641865</v>
+        <v>642132</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>734190</v>
+        <v>735626</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09572395639960594</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08945082132056867</v>
+        <v>0.08948808462799451</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1023173510370868</v>
+        <v>0.1025174157519486</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>251867</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>223384</v>
+        <v>222448</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>291142</v>
+        <v>286583</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07236932328056651</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06418546950138018</v>
+        <v>0.06391640925221953</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08365448873723819</v>
+        <v>0.08234442684728968</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>663</v>
@@ -2269,19 +2269,19 @@
         <v>419129</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>385581</v>
+        <v>388435</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>451100</v>
+        <v>453353</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1134214756730073</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1043430730158093</v>
+        <v>0.1051154599738157</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1220732886930342</v>
+        <v>0.1226828549037912</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>935</v>
@@ -2290,19 +2290,19 @@
         <v>670996</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>631765</v>
+        <v>629624</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>719984</v>
+        <v>720117</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09351048577792413</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08804321964756827</v>
+        <v>0.08774490781987328</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1003375264164215</v>
+        <v>0.1003561254324754</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>585909</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>540187</v>
+        <v>541866</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>629106</v>
+        <v>631545</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1683501988079728</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1552130432177709</v>
+        <v>0.1556954632743674</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1807621666239981</v>
+        <v>0.1814629056377813</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1271</v>
@@ -2340,19 +2340,19 @@
         <v>760647</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>720244</v>
+        <v>718266</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>799571</v>
+        <v>801409</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2058404082367243</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1949069313340703</v>
+        <v>0.1943716548172482</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.216373843832949</v>
+        <v>0.2168712864480352</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1923</v>
@@ -2361,19 +2361,19 @@
         <v>1346555</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1287117</v>
+        <v>1286514</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1409252</v>
+        <v>1410423</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1876570210670451</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1793736939527739</v>
+        <v>0.1792896355329323</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1963944410962478</v>
+        <v>0.1965577390868796</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2351991</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2291258</v>
+        <v>2289603</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2410321</v>
+        <v>2408939</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6758018579167254</v>
+        <v>0.6758018579167253</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6583512472833941</v>
+        <v>0.6578756406163656</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6925618231160484</v>
+        <v>0.6921649134869661</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2760</v>
@@ -2411,19 +2411,19 @@
         <v>2119198</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2066305</v>
+        <v>2064628</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2171162</v>
+        <v>2170446</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5734813610827454</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5591678763200931</v>
+        <v>0.5587139785176025</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5875434252967232</v>
+        <v>0.5873495521626496</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4856</v>
@@ -2432,19 +2432,19 @@
         <v>4471189</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4397424</v>
+        <v>4393311</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4548577</v>
+        <v>4545120</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.6231085367554247</v>
+        <v>0.6231085367554248</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6128285217061021</v>
+        <v>0.6122553434789433</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6338932999614442</v>
+        <v>0.6334116180581849</v>
       </c>
     </row>
     <row r="28">
